--- a/Planning/Goal Chart.xlsx
+++ b/Planning/Goal Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\University Work\Games Design - Year 3\AI - DAC619\Artificial_Intelligence_for_Games_(DAC619)\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{98A41D79-3CFC-405B-B1B8-2383883D5C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{E56F21A6-71E3-4159-9667-EED1CC0AD349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Planning/Goal Chart.xlsx
+++ b/Planning/Goal Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\University Work\Games Design - Year 3\AI - DAC619\Artificial_Intelligence_for_Games_(DAC619)\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{E56F21A6-71E3-4159-9667-EED1CC0AD349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{4F4C485A-867E-4695-892D-4ECB3E837D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Composite Goals</t>
   </si>
@@ -70,6 +70,57 @@
   </si>
   <si>
     <t>Evaluator_UseHealthKit</t>
+  </si>
+  <si>
+    <t>Goal_Search</t>
+  </si>
+  <si>
+    <t>Evaluator_Search</t>
+  </si>
+  <si>
+    <t>Goal_GetFlag</t>
+  </si>
+  <si>
+    <t>Goal_ReturnFlag</t>
+  </si>
+  <si>
+    <t>Goal_ScoreFlag</t>
+  </si>
+  <si>
+    <t>Goal_Flee</t>
+  </si>
+  <si>
+    <t>Goal_MoveToTeammate</t>
+  </si>
+  <si>
+    <t>Goal_GiveFlagToTeammate</t>
+  </si>
+  <si>
+    <t>Goal_FindFlag</t>
+  </si>
+  <si>
+    <t>Goal_ReturnToBase</t>
+  </si>
+  <si>
+    <t>Goal_SignalFlagSwap</t>
+  </si>
+  <si>
+    <t>Goal_ReturnFlagSwapSignal</t>
+  </si>
+  <si>
+    <t>Goal_CollectFlag</t>
+  </si>
+  <si>
+    <t>Goal_GetFlagFromEnemy</t>
+  </si>
+  <si>
+    <t>Evaluator_Flee</t>
+  </si>
+  <si>
+    <t>Goal_GuardFlag</t>
+  </si>
+  <si>
+    <t>Goal_DefendTeammate</t>
   </si>
 </sst>
 </file>
@@ -486,7 +537,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -520,7 +571,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -530,7 +583,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -540,7 +595,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -550,70 +607,98 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>

--- a/Planning/Goal Chart.xlsx
+++ b/Planning/Goal Chart.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\University Work\Games Design - Year 3\AI - DAC619\Artificial_Intelligence_for_Games_(DAC619)\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{4F4C485A-867E-4695-892D-4ECB3E837D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FF7BE-A4F3-40B7-9A0B-A78A37D524C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Composite Goals</t>
   </si>
@@ -48,30 +48,9 @@
     <t>Evaluator_Heal</t>
   </si>
   <si>
-    <t>Goal_Wander</t>
-  </si>
-  <si>
     <t>Goal_AttackEnemy</t>
   </si>
   <si>
-    <t>Goal_GetHealthKIt</t>
-  </si>
-  <si>
-    <t>Goal_UseHealthKit</t>
-  </si>
-  <si>
-    <t>Evaluator_Wander</t>
-  </si>
-  <si>
-    <t>Evaluator_Attack</t>
-  </si>
-  <si>
-    <t>Evaluator_GetHealthKit</t>
-  </si>
-  <si>
-    <t>Evaluator_UseHealthKit</t>
-  </si>
-  <si>
     <t>Goal_Search</t>
   </si>
   <si>
@@ -81,52 +60,55 @@
     <t>Goal_GetFlag</t>
   </si>
   <si>
-    <t>Goal_ReturnFlag</t>
-  </si>
-  <si>
     <t>Goal_ScoreFlag</t>
   </si>
   <si>
-    <t>Goal_Flee</t>
-  </si>
-  <si>
-    <t>Goal_MoveToTeammate</t>
-  </si>
-  <si>
-    <t>Goal_GiveFlagToTeammate</t>
-  </si>
-  <si>
     <t>Goal_FindFlag</t>
   </si>
   <si>
-    <t>Goal_ReturnToBase</t>
-  </si>
-  <si>
-    <t>Goal_SignalFlagSwap</t>
-  </si>
-  <si>
-    <t>Goal_ReturnFlagSwapSignal</t>
-  </si>
-  <si>
     <t>Goal_CollectFlag</t>
   </si>
   <si>
-    <t>Goal_GetFlagFromEnemy</t>
-  </si>
-  <si>
-    <t>Evaluator_Flee</t>
-  </si>
-  <si>
-    <t>Goal_GuardFlag</t>
-  </si>
-  <si>
-    <t>Goal_DefendTeammate</t>
+    <t>Goal_DropObject</t>
+  </si>
+  <si>
+    <t>Goal_GetItem</t>
+  </si>
+  <si>
+    <t>Goal_Globals</t>
+  </si>
+  <si>
+    <t>Goal_MoveToBase</t>
+  </si>
+  <si>
+    <t>Goal_UseItem</t>
+  </si>
+  <si>
+    <t>Evaluator_GetEnemyFlag</t>
+  </si>
+  <si>
+    <t>Evaluator_ScoreEnemyFlag</t>
+  </si>
+  <si>
+    <t>Evaluator_ScoreFriendlyFlag</t>
+  </si>
+  <si>
+    <t>Evaluator_AttackEnemy</t>
+  </si>
+  <si>
+    <t>Evaluator_GetPowerup</t>
+  </si>
+  <si>
+    <t>Evaluator_UsePowerup</t>
+  </si>
+  <si>
+    <t>Evaluator_RetrieveLostFlag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,14 +515,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -558,81 +543,81 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -640,7 +625,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -648,56 +633,44 @@
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Planning/Goal Chart.xlsx
+++ b/Planning/Goal Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\University Work\Games Design - Year 3\AI - DAC619\Artificial_Intelligence_for_Games_(DAC619)\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FF7BE-A4F3-40B7-9A0B-A78A37D524C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E734CD-78B1-4B56-B293-AC87601D738C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-210" yWindow="1125" windowWidth="29040" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Composite Goals</t>
   </si>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -531,13 +531,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -545,13 +542,10 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -559,13 +553,10 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -573,105 +564,101 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
